--- a/words.xlsx
+++ b/words.xlsx
@@ -33,40 +33,43 @@
     <sheet name="kilometers" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="mile" sheetId="25" state="visible" r:id="rId25"/>
     <sheet name="kilometer" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="distanceleft" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="right" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="continue" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="straight" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="turn" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="roundabout" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="aheadfirst" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="second" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="third" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="uno" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="dos" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="tres" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="police" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="detectivecrash" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="accident" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="issue" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="calamity" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="collision" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="hazard" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="traffic" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="slow down" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="gridlock" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="speed" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="pace" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="velocity" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="quickness" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="and then" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="after" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="afterwardsrerouting" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="route" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="arrived" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="there" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="arrive" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="made it" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="distance" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="left" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="right" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="continue" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="straight" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="turn" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="roundabout" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="ahead" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="first" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="second" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="third" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="uno" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="dos" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="tres" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="police" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="detective" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="crash" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="accident" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="issue" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="calamity" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="collision" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="hazard" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="traffic" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="slow down" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="gridlock" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="speed" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="pace" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="velocity" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="quickness" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="and then" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="after" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="afterwardsrerouting" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="route" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="arrived" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="there" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="arrive" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="made it" sheetId="63" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3026,19 +3029,135 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">red on: march 31, 2020(dog barks in the distance)(sighs) is it just me, john,or </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>season-6_episode-13-Start_Spreading_the_News.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>x.[♪♪♪](crickets chirp,dog barks in the distance)kids, food's here.(singsong) mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>season-6_episode-13-Start_Spreading_the_News.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> off now.(birds chirp)(dog barks in the distance)hmm.hey, you do know that i'vea</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>season-6_episode-13-Start_Spreading_the_News.txt</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ay, come on, seriously!there's only one left?!i know, stevie was eatingthe other</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>found you a loaner pair.helen must have left them.phew.thank you, ted. those are</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>season-2_episode-10-Ronnies_Party.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adies. family matter.i knew i should've lefthim home with the sitter.moira, i ha</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>season-2_episode-10-Ronnies_Party.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>a left out of the moteland then another left.it's a house with a truck in the dr</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>and then, last summer,that time that he left his mollyin my glove compartment,an</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3317,13 +3436,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3334,24 +3453,86 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>re you?- oh!- good morning!hi. oh, just continue on inside.well, i hope we didn'</t>
+          <t>e.he's a monster, who uses people,- and leaves them for dead.- yeah.i hate to pl</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>season-2_episode-10-Ronnies_Party.txt</t>
+          <t>season-3_episode-10-Sebastien_Raine.txt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>edto be saying in the moment,so, please continue.- okay um,we got together whenw</t>
+          <t xml:space="preserve"> the woman who literallyconvinced me
+to leave my partner aloneat home,
+watching </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>season-4_episode-7-The_Barbecue.txt</t>
+          <t>season-6_episode-7-Moira_Ros.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> was that ever discussed.all i did, was leavean envelope full of cashand a note </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>season-6_episode-14-Happy_Ending.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tevie and i shouldprobably go get ready.leave you to put your little suit on.- m</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>season-6_episode-14-Happy_Ending.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> don't want my help,"than" i guess i'll leave.okay, thank you!okay, i'll see you</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>season-3_episode-8-Motel_Review.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>y threatened to burn down the motel,and leave my pregnant baby penniless.this mo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>season-3_episode-8-Motel_Review.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> office.i'm gonna leave your- i'm gonna leave your office.so um...best wishes to</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>season-2_episode-1-Finding_David.txt</t>
         </is>
       </c>
     </row>
@@ -3360,13 +3541,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3377,86 +3558,24 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>e.he's a monster, who uses people,- and leaves them for dead.- yeah.i hate to pl</t>
+          <t>re you?- oh!- good morning!hi. oh, just continue on inside.well, i hope we didn'</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>season-3_episode-10-Sebastien_Raine.txt</t>
+          <t>season-2_episode-10-Ronnies_Party.txt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the woman who literallyconvinced me
-to leave my partner aloneat home,
-watching </t>
+          <t>edto be saying in the moment,so, please continue.- okay um,we got together whenw</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>season-6_episode-7-Moira_Ros.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> was that ever discussed.all i did, was leavean envelope full of cashand a note </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>season-6_episode-14-Happy_Ending.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tevie and i shouldprobably go get ready.leave you to put your little suit on.- m</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>season-6_episode-14-Happy_Ending.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> don't want my help,"than" i guess i'll leave.okay, thank you!okay, i'll see you</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>season-3_episode-8-Motel_Review.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>y threatened to burn down the motel,and leave my pregnant baby penniless.this mo</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>season-3_episode-8-Motel_Review.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> office.i'm gonna leave your- i'm gonna leave your office.so um...best wishes to</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>season-2_episode-1-Finding_David.txt</t>
+          <t>season-4_episode-7-The_Barbecue.txt</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3534,7 +3653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3706,7 +3825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3724,31 +3843,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3759,6 +3860,232 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>imals,so you guys are already like, way ahead.- okay.- so...have fun!- hi.- hey.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>season-4_episode-1-Dead_Guy_in_Room_4.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> of our finest interns.we-we need to getahead of this, stevie.we must, we must c</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>season-4_episode-5-RIP_Moira_Rose.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>o say.oh, stevie. stevie,you have years ahead of youstill to collect a cartageof</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>season-4_episode-5-RIP_Moira_Rose.txt</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nyonethat wants to be your friendon the first day, okay?and you mustn't let anyo</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>eswon't allow the brainto see things at first.like the culturaland economic bene</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>hink we might need to samplethe product first.
+- ah!
+my wife and i got a real ki</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>season-6_episode-7-Moira_Ros.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+yeah. um, hey! citrus?
+- yeah?
+- well, first of all, so greatto finally experie</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>season-6_episode-7-Moira_Ros.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>we're using.
+- okay. like what?
+- well, first of all,
+i noticed that you referre</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>season-6_episode-7-Moira_Ros.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">e been put towork by the rose family.my first job in high schoolwas actually at </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>season-4_episode-7-The_Barbecue.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> murdered first!david, you get murdered first!i actually think this place is kin</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> did they go?i don't know!i don't know! first youthreatened to abandon me,and no</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> night,so i kind of dozed off.well, the first chapter ismore of an introduction,</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>season-6_episode-5-The_Premiere.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>.i might take one myself.apparently the first 15 minutesare very, very dense.moi</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>season-6_episode-5-The_Premiere.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>oodpress, right?you might wanna watch itfirst.tonight, a murderof wild crows att</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>season-6_episode-5-The_Premiere.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>t were the crows evendoing there in the first place?it's called an immersiveexpe</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>season-6_episode-5-The_Premiere.txt</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>read 'em and weep.and i think i come in secondbecause i got a pair of queens.the</t>
         </is>
       </c>
@@ -3811,7 +4138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3866,7 +4193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3897,7 +4224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3928,13 +4255,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3945,96 +4272,84 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>llywood.from this canadian...has that actress had work done too?um, yeah, you ca</t>
+          <t>s your chance.okay, your eyebrows never move,so i can't tell whetheryou're being</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>season-2_episode-10-Ronnies_Party.txt</t>
+          <t>season-3_episode-7-General_Store.txt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ad a six-and-a-halfseason careeras an actress in television,which i put on holdt</t>
+          <t>eit from the ashes?well, that's a risky moveon the part of your investors.i don'</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>season-2_episode-10-Ronnies_Party.txt</t>
+          <t>season-3_episode-7-General_Store.txt</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>g day, david?you tell me!because i was stressed out!and you told me that youwant</t>
+          <t>loons?that could be good.yeah, we could move those.maybe to the garbage?we're al</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>season-6_episode-14-Happy_Ending.txt</t>
+          <t>season-4_episode-10-Baby_Sprinkle.txt</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t!and you told me that youwanted to de-stress me.i just assumed you knewwhat you</t>
+          <t>re isgrandpa's ashes, and no,you cannot move it, it's bolted down.there's been a</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>season-6_episode-14-Happy_Ending.txt</t>
+          <t>season-4_episode-10-Baby_Sprinkle.txt</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>st popular guy in room 6.is this the mattress?okay, yeah, i've got a big heart,a</t>
+          <t xml:space="preserve">ust say?i said the breath mints need to move.i think it was somethingabout your </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>season-2_episode-4-Estate_Sale.txt</t>
+          <t>season-4_episode-4-Girls_Night.txt</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ing you have it.you're giving us the mattress?well, practically, it'syours for $</t>
+          <t>'t know howto get it to leave.you can't move back here,ted,you've just been offe</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>season-2_episode-4-Estate_Sale.txt</t>
+          <t>season-6_episode-8-The_Presidential_Suite.txt</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>is has gotta be betterthan the motel mattresswe were using, i mean, whoknows who</t>
+          <t xml:space="preserve"> come as a shockto you, ted,but i can't moveto the galapagos.i wouldn't let you </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>season-2_episode-4-Estate_Sale.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>comfy, come to bed.tomorrow we get a mattress cover.yes, yes, that's the spirit.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>season-2_episode-4-Estate_Sale.txt</t>
+          <t>season-6_episode-8-The_Presidential_Suite.txt</t>
         </is>
       </c>
     </row>
@@ -4043,13 +4358,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4060,24 +4375,96 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>to my room now...and i'm gonna call the police!no, mr. rose, please don't call t</t>
+          <t>llywood.from this canadian...has that actress had work done too?um, yeah, you ca</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>season-1_episode-10-Honeymoon.txt</t>
+          <t>season-2_episode-10-Ronnies_Party.txt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ice!no, mr. rose, please don't call the police!dad, please just takethe towels, </t>
+          <t>ad a six-and-a-halfseason careeras an actress in television,which i put on holdt</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>season-1_episode-10-Honeymoon.txt</t>
+          <t>season-2_episode-10-Ronnies_Party.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>g day, david?you tell me!because i was stressed out!and you told me that youwant</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>season-6_episode-14-Happy_Ending.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>t!and you told me that youwanted to de-stress me.i just assumed you knewwhat you</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>season-6_episode-14-Happy_Ending.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>st popular guy in room 6.is this the mattress?okay, yeah, i've got a big heart,a</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>season-2_episode-4-Estate_Sale.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ing you have it.you're giving us the mattress?well, practically, it'syours for $</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>season-2_episode-4-Estate_Sale.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>is has gotta be betterthan the motel mattresswe were using, i mean, whoknows who</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>season-2_episode-4-Estate_Sale.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>comfy, come to bed.tomorrow we get a mattress cover.yes, yes, that's the spirit.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>season-2_episode-4-Estate_Sale.txt</t>
         </is>
       </c>
     </row>
@@ -4086,13 +4473,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4103,84 +4490,24 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>s your chance.okay, your eyebrows never move,so i can't tell whetheryou're being</t>
+          <t>to my room now...and i'm gonna call the police!no, mr. rose, please don't call t</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>season-3_episode-7-General_Store.txt</t>
+          <t>season-1_episode-10-Honeymoon.txt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eit from the ashes?well, that's a risky moveon the part of your investors.i don'</t>
+          <t xml:space="preserve">ice!no, mr. rose, please don't call the police!dad, please just takethe towels, </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>loons?that could be good.yeah, we could move those.maybe to the garbage?we're al</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>season-4_episode-10-Baby_Sprinkle.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>re isgrandpa's ashes, and no,you cannot move it, it's bolted down.there's been a</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>season-4_episode-10-Baby_Sprinkle.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ust say?i said the breath mints need to move.i think it was somethingabout your </t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>season-4_episode-4-Girls_Night.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>'t know howto get it to leave.you can't move back here,ted,you've just been offe</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>season-6_episode-8-The_Presidential_Suite.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> come as a shockto you, ted,but i can't moveto the galapagos.i wouldn't let you </t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>season-6_episode-8-The_Presidential_Suite.txt</t>
+          <t>season-1_episode-10-Honeymoon.txt</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4207,13 +4534,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4224,36 +4551,24 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">we get it, roland.i don't think it's an accidentthat bob keeps winning.what are </t>
+          <t xml:space="preserve"> yes. yes, tidal waves of prosperityare crashing down, all around us.soon enough</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>season-3_episode-10-Sebastien_Raine.txt</t>
+          <t>season-4_episode-1-Dead_Guy_in_Room_4.txt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the next hand.ahhh. like if she had an"accident" or something?i don't mean bump</t>
+          <t>e motel,so i was actually hoping i couldcrash at your place tonight.yeah, normal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>season-3_episode-10-Sebastien_Raine.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>n't think it'llbe of much use to you.it accidentally fell out of your camerainto</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>season-3_episode-10-Sebastien_Raine.txt</t>
+          <t>season-4_episode-1-Dead_Guy_in_Room_4.txt</t>
         </is>
       </c>
     </row>
@@ -4262,13 +4577,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4279,48 +4594,36 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">- so you're telling me thatthere are no issues- between you two right now?- no! </t>
+          <t xml:space="preserve">we get it, roland.i don't think it's an accidentthat bob keeps winning.what are </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>season-2_episode-11-The_Motel_Guest.txt</t>
+          <t>season-3_episode-10-Sebastien_Raine.txt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> between you two right now?- no! no! no issues.well, by "issues," ifyou mean p-p</t>
+          <t xml:space="preserve"> the next hand.ahhh. like if she had an"accident" or something?i don't mean bump</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>season-2_episode-11-The_Motel_Guest.txt</t>
+          <t>season-3_episode-10-Sebastien_Raine.txt</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">right now?- no! no! no issues.well, by "issues," ifyou mean p-peccadilloes,- if </t>
+          <t>n't think it'llbe of much use to you.it accidentally fell out of your camerainto</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>season-2_episode-11-The_Motel_Guest.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>n,i will now argue theother side of the issue.one of my fondest memoriesfrom chi</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>season-3_episode-1-Opening_Night.txt</t>
+          <t>season-3_episode-10-Sebastien_Raine.txt</t>
         </is>
       </c>
     </row>
@@ -4329,49 +4632,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4382,12 +4649,48 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ed?- those are actuallyan insane safety hazard.if they catch fire,you're basical</t>
+          <t xml:space="preserve">- so you're telling me thatthere are no issues- between you two right now?- no! </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>season-5_episode-13-The_Hike.txt</t>
+          <t>season-2_episode-11-The_Motel_Guest.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> between you two right now?- no! no! no issues.well, by "issues," ifyou mean p-p</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>season-2_episode-11-The_Motel_Guest.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">right now?- no! no! no issues.well, by "issues," ifyou mean p-peccadilloes,- if </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>season-2_episode-11-The_Motel_Guest.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>n,i will now argue theother side of the issue.one of my fondest memoriesfrom chi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>season-3_episode-1-Opening_Night.txt</t>
         </is>
       </c>
     </row>
@@ -4397,6 +4700,42 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4413,12 +4752,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>sorry i'm late,there was very heavy foottraffic on the way over.do you mind putt</t>
+          <t>ed?- those are actuallyan insane safety hazard.if they catch fire,you're basical</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>season-3_episode-3-New_Car.txt</t>
+          <t>season-5_episode-13-The_Hike.txt</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4444,12 +4783,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>he operative word.- mm! so good!- whoa! slow down there, pal!we got dinner comin</t>
+          <t>sorry i'm late,there was very heavy foottraffic on the way over.do you mind putt</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>season-1_episode-13-Town_for_Sale.txt</t>
+          <t>season-3_episode-3-New_Car.txt</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4476,7 +4815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4493,6 +4832,55 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>he operative word.- mm! so good!- whoa! slow down there, pal!we got dinner comin</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>season-1_episode-13-Town_for_Sale.txt</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t xml:space="preserve">o make sure
 they're playing at the rightspeed when you're sleeping.
 - twy, this </t>
@@ -4509,25 +4897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4702,7 +5072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4720,7 +5090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4738,7 +5108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4853,7 +5223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4968,7 +5338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4986,7 +5356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5029,13 +5399,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5046,36 +5416,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>n't want it.- stevie?- stevie?something arrived atthe front desk for you.ah!it a</t>
+          <t>nd this websiteonline that sells offold department store show rooms.so this whol</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>season-4_episode-7-The_Barbecue.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>upposed to do, here?well, has the press arrived yet?yes! everybody has arrived.e</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>season-4_episode-12-Singles_Week.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>he press arrived yet?yes! everybody has arrived.everybody is here, just waiting.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>season-4_episode-12-Singles_Week.txt</t>
+          <t>season-1_episode-10-Honeymoon.txt</t>
         </is>
       </c>
     </row>
@@ -5084,13 +5430,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B28"/>
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5101,336 +5447,36 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>y well, you could'vedropped me off back there!oh, don't be silly honey,we're hap</t>
+          <t>n't want it.- stevie?- stevie?something arrived atthe front desk for you.ah!it a</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>season-3_episode-7-General_Store.txt</t>
+          <t>season-4_episode-7-The_Barbecue.txt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ing, class.i'm sure you have all noticedthere's a new studentin our midst.let's </t>
+          <t>upposed to do, here?well, has the press arrived yet?yes! everybody has arrived.e</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>season-3_episode-7-General_Store.txt</t>
+          <t>season-4_episode-12-Singles_Week.txt</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>w many starswould that give you?one.so, there are carols playing,and it snows in</t>
+          <t>he press arrived yet?yes! everybody has arrived.everybody is here, just waiting.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">stmas world!moving into town!bob, okay, there's a wayto do these things,and i'm </t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> know, i have yetto find an ornament in therethat i'd put on my tree,and i heard</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ow,and if this works,we'll take it from there.and i'm giving youspecial price.th</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>se i was casuallyseeing prince harry,so there was the whole like,is she gonna be</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>- yeah.wow!mr. rose,i blow it.oh, well, there's alwaystomorrow, ivan.no, no, don</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">e wrong foot.and like, i totally get it,there's a new girl in town,and that can </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ndfor hanging out with you, so...david, there you are.i come bearing good news.a</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>d,if you still want it.which he does.if there's anyone in this townwho might hav</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">, you.okay.i will submit my application.there's cinnamon bunsin the lobby!these </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>uests!okay, well, they werejust sitting there.oh, they weren't justsitting there</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ting there.oh, they weren't justsitting there, alexis,they're the product of a l</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>uct of a lotof hard work!in here, moira.there are cinnamon bunsin the lobby!oh c</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>n, moira, so...okay, come on, seriously!there's only one left?!i know, stevie wa</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>season-3_episode-7-General_Store.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>yeah. like...dark things.like sometimes there's this oldwoman that paces back an</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>season-2_episode-11-The_Motel_Guest.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ke yourselves at home.just so you know, there'snothing in the fridge.oh, and i m</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>season-4_episode-2-Pregnancy_Test.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> aspecial reason for taco night.no, but there is aspecial reason tonight.there's</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>season-4_episode-2-Pregnancy_Test.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>o, but there is aspecial reason tonight.there's something that iwanted to talk t</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>season-4_episode-2-Pregnancy_Test.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> a realdorito casserole kick lately,and there's a reason for that.besides wantin</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>season-4_episode-2-Pregnancy_Test.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>.okay? so...who is feeling sexy?getting there for sure,i just-you know, i...i kn</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>season-4_episode-2-Pregnancy_Test.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>hat if they took our stuff?!what stuff? there's no stuff to take.i have stuff!so</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>'s a house with a truck in the driveway.there's a bumper stickerof a naked helen</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>no!- what?!- ah! my earrings! they were there.- they're not there!- where did th</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>earrings! they were there.- they're not there!- where did they go?i don't know!i</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> thank you again for that apology.well, there was no apology,and i can't do this</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ken up with me five times already.like, there was that timethat he never met me </t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
+          <t>season-4_episode-12-Singles_Week.txt</t>
         </is>
       </c>
     </row>
@@ -5439,13 +5485,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5456,36 +5502,336 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ur fun now david,because when the twins arrive,i'm gonna really need your help.u</t>
+          <t>y well, you could'vedropped me off back there!oh, don't be silly honey,we're hap</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>season-4_episode-2-Pregnancy_Test.txt</t>
+          <t>season-3_episode-7-General_Store.txt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>upposed to do, here?well, has the press arrived yet?yes! everybody has arrived.e</t>
+          <t xml:space="preserve">ing, class.i'm sure you have all noticedthere's a new studentin our midst.let's </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>season-4_episode-12-Singles_Week.txt</t>
+          <t>season-3_episode-7-General_Store.txt</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>he press arrived yet?yes! everybody has arrived.everybody is here, just waiting.</t>
+          <t>w many starswould that give you?one.so, there are carols playing,and it snows in</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>season-4_episode-12-Singles_Week.txt</t>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">stmas world!moving into town!bob, okay, there's a wayto do these things,and i'm </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> know, i have yetto find an ornament in therethat i'd put on my tree,and i heard</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ow,and if this works,we'll take it from there.and i'm giving youspecial price.th</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>se i was casuallyseeing prince harry,so there was the whole like,is she gonna be</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>- yeah.wow!mr. rose,i blow it.oh, well, there's alwaystomorrow, ivan.no, no, don</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">e wrong foot.and like, i totally get it,there's a new girl in town,and that can </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ndfor hanging out with you, so...david, there you are.i come bearing good news.a</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>d,if you still want it.which he does.if there's anyone in this townwho might hav</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">, you.okay.i will submit my application.there's cinnamon bunsin the lobby!these </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>uests!okay, well, they werejust sitting there.oh, they weren't justsitting there</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ting there.oh, they weren't justsitting there, alexis,they're the product of a l</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>uct of a lotof hard work!in here, moira.there are cinnamon bunsin the lobby!oh c</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>n, moira, so...okay, come on, seriously!there's only one left?!i know, stevie wa</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>season-3_episode-7-General_Store.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>yeah. like...dark things.like sometimes there's this oldwoman that paces back an</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>season-2_episode-11-The_Motel_Guest.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ke yourselves at home.just so you know, there'snothing in the fridge.oh, and i m</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>season-4_episode-2-Pregnancy_Test.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> aspecial reason for taco night.no, but there is aspecial reason tonight.there's</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>season-4_episode-2-Pregnancy_Test.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>o, but there is aspecial reason tonight.there's something that iwanted to talk t</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>season-4_episode-2-Pregnancy_Test.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> a realdorito casserole kick lately,and there's a reason for that.besides wantin</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>season-4_episode-2-Pregnancy_Test.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>.okay? so...who is feeling sexy?getting there for sure,i just-you know, i...i kn</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>season-4_episode-2-Pregnancy_Test.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>hat if they took our stuff?!what stuff? there's no stuff to take.i have stuff!so</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>'s a house with a truck in the driveway.there's a bumper stickerof a naked helen</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>no!- what?!- ah! my earrings! they were there.- they're not there!- where did th</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>earrings! they were there.- they're not there!- where did they go?i don't know!i</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> thank you again for that apology.well, there was no apology,and i can't do this</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ken up with me five times already.like, there was that timethat he never met me </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>season-1_episode-1-Our_Cup_Runneth_Over.txt</t>
         </is>
       </c>
     </row>
@@ -5494,13 +5840,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5511,12 +5857,36 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>nd this websiteonline that sells offold department store show rooms.so this whol</t>
+          <t>ur fun now david,because when the twins arrive,i'm gonna really need your help.u</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>season-1_episode-10-Honeymoon.txt</t>
+          <t>season-4_episode-2-Pregnancy_Test.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>upposed to do, here?well, has the press arrived yet?yes! everybody has arrived.e</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>season-4_episode-12-Singles_Week.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>he press arrived yet?yes! everybody has arrived.everybody is here, just waiting.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>season-4_episode-12-Singles_Week.txt</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
